--- a/1-up-and-running-from-spreadsheets-to-python/add-formats-with-dict.xlsx
+++ b/1-up-and-running-from-spreadsheets-to-python/add-formats-with-dict.xlsx
@@ -14,16 +14,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Hello, world!</t>
+  </si>
+  <si>
+    <t>Python is fun!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -37,6 +40,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFBLUE"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -46,7 +57,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -54,13 +65,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -366,6 +393,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
